--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-822339.9793991597</v>
+        <v>-824264.5829660174</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155035</v>
+        <v>3180051.965155036</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,70 +659,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>30.55077100092539</v>
+        <v>91.86750308377565</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.0481221176458</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.8118405263978</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>138.2657455784253</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>197.5762284957189</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.71014592494667</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>67.95246755437769</v>
+        <v>187.7968894613662</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470833</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656315</v>
+        <v>126.7395639656317</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>341.8733101690341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>91.54900817467373</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1465075933366</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.3327465485026</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>90.58243057891528</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.08018178008615</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>169.8669181779119</v>
+        <v>22.97514044213645</v>
       </c>
       <c r="S7" t="n">
-        <v>77.32660557441459</v>
+        <v>221.1382015301027</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>191.1158799469269</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>320.6296540493106</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.99240337009289</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.98569063694847</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274151</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>173.9752153343621</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.96582255351643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>97.46558451418856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>49.12199829633322</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.0238732184802</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>21.66714102769284</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750032</v>
       </c>
       <c r="U22" t="n">
-        <v>14.83730165918337</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557251</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>243.9787915348415</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092425</v>
+        <v>172.2919115981253</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>60.06480136869357</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141968</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X28" t="n">
-        <v>52.20299464559915</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092425</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>151.6280682296338</v>
       </c>
       <c r="T31" t="n">
-        <v>119.5276053425929</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557251</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X31" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092425</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310005</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555814</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201593</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
         <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404926</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877712</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492309883</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3806,7 +3806,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C44" t="n">
         <v>297.1410016413669</v>
@@ -3983,19 +3983,19 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F44" t="n">
         <v>338.7441556120708</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8326266600499</v>
+        <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310006</v>
+        <v>13.64724492310009</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555816</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
         <v>182.9467051201603</v>
@@ -4037,13 +4037,13 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264129</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.7893333662367</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="C2" t="n">
-        <v>338.843359929514</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D2" t="n">
-        <v>338.843359929514</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="E2" t="n">
-        <v>338.843359929514</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="F2" t="n">
-        <v>331.8978591803105</v>
+        <v>322.0072940269172</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029595</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U2" t="n">
-        <v>896.7353068029595</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V2" t="n">
-        <v>896.7353068029595</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="W2" t="n">
-        <v>896.7353068029595</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="X2" t="n">
-        <v>617.7893333662367</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="Y2" t="n">
-        <v>617.7893333662367</v>
+        <v>600.9532674636399</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308.2894483404401</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="C3" t="n">
-        <v>308.2894483404401</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="D3" t="n">
-        <v>308.2894483404401</v>
+        <v>256.306955051816</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>256.306955051816</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M3" t="n">
-        <v>439.1939517187799</v>
+        <v>432.8873314017831</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606005</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>730.7421420887098</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U3" t="n">
-        <v>730.7421420887098</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V3" t="n">
-        <v>730.7421420887098</v>
+        <v>773.028649708609</v>
       </c>
       <c r="W3" t="n">
-        <v>476.5047853605082</v>
+        <v>573.4567017331353</v>
       </c>
       <c r="X3" t="n">
-        <v>476.5047853605082</v>
+        <v>573.4567017331353</v>
       </c>
       <c r="Y3" t="n">
-        <v>476.5047853605082</v>
+        <v>573.4567017331353</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4507,31 +4507,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>168.9824685940988</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>168.9824685940988</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>168.9824685940988</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>168.9824685940988</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>640.2921596006729</v>
+        <v>908.4105917511155</v>
       </c>
       <c r="C5" t="n">
-        <v>640.2921596006729</v>
+        <v>563.0840158227993</v>
       </c>
       <c r="D5" t="n">
-        <v>640.2921596006729</v>
+        <v>563.0840158227993</v>
       </c>
       <c r="E5" t="n">
-        <v>640.2921596006729</v>
+        <v>563.0840158227993</v>
       </c>
       <c r="F5" t="n">
-        <v>633.3466588514694</v>
+        <v>556.1385150735958</v>
       </c>
       <c r="G5" t="n">
-        <v>564.7078027359364</v>
+        <v>366.4446873348421</v>
       </c>
       <c r="H5" t="n">
-        <v>225.612980214617</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352273</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082003</v>
+        <v>46.45889488081986</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943462</v>
+        <v>195.8431816943456</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909789</v>
+        <v>433.4442264909776</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203077</v>
+        <v>714.4277151203057</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090391</v>
+        <v>985.3258128090365</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860209</v>
+        <v>1195.939566860206</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313934</v>
+        <v>1338.01915031393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676137</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R5" t="n">
-        <v>1239.473479094691</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="S5" t="n">
-        <v>1239.473479094691</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="T5" t="n">
-        <v>1239.473479094691</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="U5" t="n">
-        <v>985.6187355289902</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="V5" t="n">
-        <v>985.6187355289902</v>
+        <v>908.4105917511155</v>
       </c>
       <c r="W5" t="n">
-        <v>985.6187355289902</v>
+        <v>908.4105917511155</v>
       </c>
       <c r="X5" t="n">
-        <v>985.6187355289902</v>
+        <v>908.4105917511155</v>
       </c>
       <c r="Y5" t="n">
-        <v>640.2921596006729</v>
+        <v>908.4105917511155</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436.5663644066946</v>
+        <v>294.2766397256332</v>
       </c>
       <c r="C6" t="n">
-        <v>436.5663644066946</v>
+        <v>119.8236104445062</v>
       </c>
       <c r="D6" t="n">
-        <v>436.5663644066946</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="E6" t="n">
-        <v>277.3289094012391</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="F6" t="n">
-        <v>277.3289094012391</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="G6" t="n">
-        <v>138.797083549384</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352273</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352273</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352273</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="K6" t="n">
-        <v>184.2020227692173</v>
+        <v>184.2020227692169</v>
       </c>
       <c r="L6" t="n">
-        <v>456.5135021860201</v>
+        <v>184.2020227692169</v>
       </c>
       <c r="M6" t="n">
-        <v>456.5135021860201</v>
+        <v>522.6565998365596</v>
       </c>
       <c r="N6" t="n">
-        <v>794.9680792533638</v>
+        <v>852.4475113374597</v>
       </c>
       <c r="O6" t="n">
-        <v>1090.126345774109</v>
+        <v>1147.605777858205</v>
       </c>
       <c r="P6" t="n">
-        <v>1310.013808592037</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676137</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676137</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676137</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="T6" t="n">
-        <v>1367.493240676137</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="U6" t="n">
-        <v>1139.282714489205</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="V6" t="n">
-        <v>904.1306062574624</v>
+        <v>1132.34113244439</v>
       </c>
       <c r="W6" t="n">
-        <v>812.6332016322955</v>
+        <v>878.103775716188</v>
       </c>
       <c r="X6" t="n">
-        <v>604.7817014267627</v>
+        <v>670.2522755106552</v>
       </c>
       <c r="Y6" t="n">
-        <v>604.7817014267627</v>
+        <v>462.4919767457013</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="C7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="D7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="E7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="F7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="G7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="H7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="I7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="J7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352273</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953562</v>
+        <v>78.97414292953529</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394792</v>
+        <v>143.7938290394786</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147034</v>
+        <v>212.5068643147026</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039165</v>
+        <v>259.9581784039154</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461758</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461758</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="R7" t="n">
-        <v>105.4575472119213</v>
+        <v>253.8330802783599</v>
       </c>
       <c r="S7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="T7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="U7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="V7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="W7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="X7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.34986481352273</v>
+        <v>30.4611595408824</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1924.457674141023</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1555.495157200611</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1197.229458593861</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>811.4412059956167</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>400.4553012060091</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.37975290126636</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>77.16085115061543</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.0282177315061</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5018,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382247</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,25 +5063,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500521</v>
+        <v>1323.183729816122</v>
       </c>
       <c r="X13" t="n">
-        <v>492.4609007520347</v>
+        <v>1095.194178918105</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>874.4015997745747</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5364,16 +5364,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.7324460062429</v>
+        <v>613.8011874802279</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>444.865004552321</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>294.7483651399853</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>146.8352715575922</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364826</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.3809108364826</v>
+        <v>795.4496523104676</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,10 +5498,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,25 +5595,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>315.6192635197069</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L18" t="n">
-        <v>929.5163332765956</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.836466556557</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2041.248044820708</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.1091870201128</v>
+        <v>415.8104215925223</v>
       </c>
       <c r="C19" t="n">
-        <v>531.1091870201128</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>380.9925476077771</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>380.9925476077771</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>380.9925476077771</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,7 +5674,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570735</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>531.1091870201128</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>531.1091870201128</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.1091870201128</v>
+        <v>415.8104215925223</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7466045204289</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U22" t="n">
-        <v>1060.223671869846</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V22" t="n">
-        <v>805.5391836639591</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>805.5391836639591</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>805.5391836639591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.7466045204289</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6069,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>375.8693116985227</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>225.520083864406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>225.520083864406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>225.520083864406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968141</v>
+        <v>851.9322746968145</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
         <v>1587.602350397713</v>
@@ -6172,25 +6172,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066635</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949931</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572792</v>
+        <v>987.5796692572802</v>
       </c>
       <c r="V25" t="n">
-        <v>987.5796692572792</v>
+        <v>751.4821361451836</v>
       </c>
       <c r="W25" t="n">
-        <v>741.136445484712</v>
+        <v>480.6519212020132</v>
       </c>
       <c r="X25" t="n">
-        <v>741.136445484712</v>
+        <v>271.2493253977862</v>
       </c>
       <c r="Y25" t="n">
-        <v>538.9308214349721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>882.789198330469</v>
+        <v>157.8886079943196</v>
       </c>
       <c r="C28" t="n">
-        <v>732.4399704963522</v>
+        <v>157.8886079943196</v>
       </c>
       <c r="D28" t="n">
-        <v>600.9102861778067</v>
+        <v>157.8886079943196</v>
       </c>
       <c r="E28" t="n">
-        <v>471.5841476892039</v>
+        <v>157.8886079943196</v>
       </c>
       <c r="F28" t="n">
-        <v>471.5841476892039</v>
+        <v>157.8886079943196</v>
       </c>
       <c r="G28" t="n">
-        <v>321.9957811028146</v>
+        <v>157.8886079943196</v>
       </c>
       <c r="H28" t="n">
-        <v>190.1647277445482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422078</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q28" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.652868057293</v>
+        <v>1346.966259596205</v>
       </c>
       <c r="U28" t="n">
-        <v>1644.652868057293</v>
+        <v>1076.424575903553</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.555334945197</v>
+        <v>840.3270427914568</v>
       </c>
       <c r="W28" t="n">
-        <v>1137.725120002026</v>
+        <v>569.4968278482864</v>
       </c>
       <c r="X28" t="n">
-        <v>1084.994822380209</v>
+        <v>360.0942320440594</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.789198330469</v>
+        <v>157.8886079943196</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6467,7 +6467,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>226.5432299488888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>226.5432299488888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>226.5432299488888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968147</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.652868057293</v>
@@ -6646,25 +6646,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066635</v>
+        <v>1491.493203178875</v>
       </c>
       <c r="T31" t="n">
-        <v>1342.584858175127</v>
+        <v>1286.294743062171</v>
       </c>
       <c r="U31" t="n">
-        <v>1072.043174482476</v>
+        <v>1015.75305936952</v>
       </c>
       <c r="V31" t="n">
-        <v>1072.043174482476</v>
+        <v>779.6555262574232</v>
       </c>
       <c r="W31" t="n">
-        <v>801.2129595393053</v>
+        <v>508.8253113142528</v>
       </c>
       <c r="X31" t="n">
-        <v>591.8103637350781</v>
+        <v>299.4227155100257</v>
       </c>
       <c r="Y31" t="n">
-        <v>389.6047396853382</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,16 +6777,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649692</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F35" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922878</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402922</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665210999</v>
       </c>
       <c r="J35" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>837.3997513970985</v>
+        <v>868.2168169432325</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.519305035951</v>
+        <v>1474.738596518644</v>
       </c>
       <c r="M35" t="n">
-        <v>1922.795658755841</v>
+        <v>1826.996552080631</v>
       </c>
       <c r="N35" t="n">
-        <v>2718.340779859872</v>
+        <v>2189.568218016797</v>
       </c>
       <c r="O35" t="n">
-        <v>3424.363840884068</v>
+        <v>2895.591279040993</v>
       </c>
       <c r="P35" t="n">
-        <v>3670.683085050103</v>
+        <v>3460.491244296796</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605499</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605499</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862511</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813156</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176631</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873101</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643028</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.612362421989</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F36" t="n">
-        <v>337.2044323234537</v>
+        <v>337.2044323234536</v>
       </c>
       <c r="G36" t="n">
-        <v>200.277753927639</v>
+        <v>200.2777539276389</v>
       </c>
       <c r="H36" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665210999</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044723</v>
       </c>
       <c r="K36" t="n">
-        <v>528.5310626619803</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>775.2961905684443</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M36" t="n">
-        <v>1082.616323848406</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N36" t="n">
-        <v>1496.926014200504</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O36" t="n">
-        <v>1776.466079419201</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q36" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026574</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F37" t="n">
         <v>299.8173650422754</v>
@@ -7090,28 +7090,28 @@
         <v>118.8642169901214</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665210999</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443642</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K37" t="n">
         <v>373.6189558173199</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N37" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O37" t="n">
         <v>1667.119115541954</v>
       </c>
       <c r="P37" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
         <v>2017.453465576481</v>
@@ -7120,7 +7120,7 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T37" t="n">
         <v>1689.133209963487</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="38">
@@ -7160,55 +7160,55 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G38" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402925</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665210999</v>
       </c>
       <c r="J38" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>547.3128584977795</v>
+        <v>868.2168169432325</v>
       </c>
       <c r="L38" t="n">
-        <v>1248.917014541578</v>
+        <v>1474.738596518644</v>
       </c>
       <c r="M38" t="n">
-        <v>1601.174970103564</v>
+        <v>1826.996552080631</v>
       </c>
       <c r="N38" t="n">
-        <v>2396.720091207595</v>
+        <v>2189.568218016797</v>
       </c>
       <c r="O38" t="n">
-        <v>3102.74315223179</v>
+        <v>2895.591279040993</v>
       </c>
       <c r="P38" t="n">
-        <v>3667.643117487593</v>
+        <v>3460.491244296796</v>
       </c>
       <c r="Q38" t="n">
-        <v>3804.445865042991</v>
+        <v>3807.485832605499</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605499</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862511</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813156</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176631</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
         <v>2869.25802964303</v>
@@ -7217,7 +7217,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F39" t="n">
-        <v>337.2044323234537</v>
+        <v>337.2044323234536</v>
       </c>
       <c r="G39" t="n">
-        <v>200.277753927639</v>
+        <v>200.2777539276389</v>
       </c>
       <c r="H39" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665210999</v>
       </c>
       <c r="J39" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044723</v>
       </c>
       <c r="K39" t="n">
-        <v>266.7104780195275</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>513.4756059259915</v>
+        <v>1185.651406307347</v>
       </c>
       <c r="M39" t="n">
-        <v>1281.843752318453</v>
+        <v>1492.971539587309</v>
       </c>
       <c r="N39" t="n">
-        <v>1611.706379982486</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O39" t="n">
-        <v>2281.170141285145</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P39" t="n">
-        <v>2486.192622067355</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021371</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665210999</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443639</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
         <v>688.7815720567934</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
@@ -7354,28 +7354,28 @@
         <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963453</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872896</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922888</v>
+        <v>329.4856801922877</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402803</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
@@ -7412,25 +7412,25 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977795</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.917014541578</v>
+        <v>1156.336370582085</v>
       </c>
       <c r="M41" t="n">
-        <v>1981.207117116192</v>
+        <v>1508.594326144071</v>
       </c>
       <c r="N41" t="n">
-        <v>2776.752238220222</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O41" t="n">
-        <v>3105.7831197943</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P41" t="n">
-        <v>3670.683085050103</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
         <v>3807.4858326055</v>
@@ -7445,16 +7445,16 @@
         <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>528.5310626619803</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L42" t="n">
-        <v>775.2961905684443</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M42" t="n">
-        <v>1482.341527490009</v>
+        <v>1281.843752318453</v>
       </c>
       <c r="N42" t="n">
-        <v>1812.204155154042</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O42" t="n">
-        <v>2091.744220372739</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
@@ -7573,7 +7573,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7582,25 +7582,25 @@
         <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P43" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R43" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T43" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E44" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872888</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922889</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
@@ -7652,19 +7652,19 @@
         <v>868.2168169432326</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.820972987031</v>
+        <v>1156.336370582085</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.078928549017</v>
+        <v>1508.594326144071</v>
       </c>
       <c r="N44" t="n">
-        <v>2717.624049653048</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O44" t="n">
-        <v>3046.654931227125</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P44" t="n">
-        <v>3611.45594924364</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
         <v>3748.258696799037</v>
@@ -7691,7 +7691,7 @@
         <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
-        <v>528.5310626619803</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L45" t="n">
-        <v>775.2961905684443</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.616323848406</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N45" t="n">
-        <v>1887.027902112557</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O45" t="n">
-        <v>2166.567967331254</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P45" t="n">
-        <v>2371.590448113463</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7783,22 +7783,22 @@
         <v>638.392864302657</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901212</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
@@ -7810,10 +7810,10 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N46" t="n">
         <v>1365.793566308212</v>
@@ -7828,25 +7828,25 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R46" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
         <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963444</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y46" t="n">
         <v>751.2212380928556</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>236.1308877972191</v>
+        <v>322.2123737917331</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.2245426988757</v>
+        <v>108.2245426988758</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>95.77824488244664</v>
       </c>
       <c r="M6" t="n">
-        <v>92.21630211665699</v>
+        <v>434.0896122856906</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209649</v>
+        <v>413.2249392811233</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>172.8937077151958</v>
+        <v>114.8336753070147</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>116.908739053196</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>360.5026862907255</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>28.12263706262993</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>52.49733361305235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>297.2466435761027</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>293.0170635346656</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>321.6184100369291</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>5.891030169484338</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>321.6184100369291</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>8.961704475049896</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.47535963978187</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>383.8708555683106</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>261.7930203334324</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7628319612152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165118</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>261.7930203334324</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.6987614651305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>112.5477830022289</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.6188307985784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>69.78123658443927</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>96.29904972659801</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.46969524489739</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>196.917512324402</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338609</v>
       </c>
       <c r="U22" t="n">
-        <v>271.400050739394</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037169</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205253</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141968</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094047</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>24.1431212588972</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.89165621111718</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>70.44794145599019</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094047</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>155.1055752005857</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
         <v>148.8457355557755</v>
@@ -24844,19 +24844,19 @@
         <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205253</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141968</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094047</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.89165621111708</v>
       </c>
       <c r="T31" t="n">
-        <v>83.61887017294404</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1211839.213666266</v>
+        <v>1211839.213666267</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
@@ -26323,10 +26323,10 @@
         <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="G2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557398</v>
@@ -26338,22 +26338,22 @@
         <v>217961.3804171258</v>
       </c>
       <c r="K2" t="n">
-        <v>217961.3804171259</v>
+        <v>217961.3804171258</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126778</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126776</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126777</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126777</v>
+        <v>225786.4867126778</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794821</v>
+        <v>72744.75223794703</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936394</v>
+        <v>348321.8962936404</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428185</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113919</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303611</v>
+        <v>16913.40047303587</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741629</v>
+        <v>123915.6258741631</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762902</v>
+        <v>69175.08933762899</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428183</v>
+        <v>14720.86843428188</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211185</v>
+        <v>296337.3092211188</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316561</v>
+        <v>43561.42148316552</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316549</v>
       </c>
       <c r="G4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456438</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="J4" t="n">
-        <v>49616.29565456435</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456438</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="P4" t="n">
         <v>99837.12979766788</v>
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049172</v>
+        <v>56410.20653049165</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,19 +26479,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
         <v>93534.28680921868</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268615.2026878273</v>
+        <v>-268615.2026878274</v>
       </c>
       <c r="C6" t="n">
-        <v>-199705.7812768805</v>
+        <v>-199705.7812768796</v>
       </c>
       <c r="D6" t="n">
-        <v>-397601.0840368005</v>
+        <v>-397601.0840368016</v>
       </c>
       <c r="E6" t="n">
-        <v>-445642.8010530384</v>
+        <v>-445740.2601790106</v>
       </c>
       <c r="F6" t="n">
-        <v>79517.23542385767</v>
+        <v>79419.77629788546</v>
       </c>
       <c r="G6" t="n">
-        <v>79517.23542385767</v>
+        <v>79419.77629788556</v>
       </c>
       <c r="H6" t="n">
-        <v>79517.23542385755</v>
+        <v>79419.77629788552</v>
       </c>
       <c r="I6" t="n">
-        <v>60089.9295190609</v>
+        <v>60018.79218910124</v>
       </c>
       <c r="J6" t="n">
-        <v>2556.103082203583</v>
+        <v>2484.96575224405</v>
       </c>
       <c r="K6" t="n">
-        <v>57897.3974803067</v>
+        <v>57826.26015034731</v>
       </c>
       <c r="L6" t="n">
-        <v>-61824.45370599622</v>
+        <v>-61824.45370599652</v>
       </c>
       <c r="M6" t="n">
-        <v>-24929.63338843083</v>
+        <v>-24929.63338843075</v>
       </c>
       <c r="N6" t="n">
-        <v>29524.58751491619</v>
+        <v>29524.58751491629</v>
       </c>
       <c r="O6" t="n">
-        <v>44245.45594919831</v>
+        <v>44245.45594919811</v>
       </c>
       <c r="P6" t="n">
-        <v>44245.45594919805</v>
+        <v>44245.45594919816</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020428</v>
+        <v>91.59216845020339</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690341</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513748</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513751</v>
+        <v>951.8714581513748</v>
       </c>
       <c r="O4" t="n">
         <v>951.8714581513751</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678835</v>
+        <v>49.73080458678834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285229</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107895</v>
+        <v>56.57090773107805</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668824</v>
+        <v>286.1514957668833</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667867</v>
+        <v>65.71679646667756</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855215</v>
+        <v>332.4139625855225</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023558</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667849</v>
+        <v>65.71679646667756</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855214</v>
+        <v>332.4139625855225</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968195</v>
+        <v>277.5841853968194</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667867</v>
+        <v>65.71679646667756</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855215</v>
+        <v>332.4139625855225</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>384.611177526394</v>
+        <v>323.2944454435438</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19.37933487697569</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>54.11875466520067</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.16368695815979</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27591,7 +27591,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>23.39958160197449</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>346.9820602383445</v>
+        <v>227.137638331356</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>196.2804842470834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.36462848701944</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>55.89605738996502</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373485</v>
+        <v>82.61362792373492</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923659</v>
+        <v>87.92595927923672</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758995</v>
+        <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>161.1125525820043</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475082</v>
+        <v>81.68192939475094</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780085962</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571354</v>
+        <v>72.33162581571368</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.8917777357755</v>
       </c>
       <c r="S7" t="n">
-        <v>143.8115959556881</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>222.6682900738681</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>28.61131466810241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.2544177285349</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>111.9799311553898</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.294324647460598e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.457657853574055e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="26">
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.40108554285238</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964168</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964227</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964182</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964153</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128812</v>
+        <v>0.3682097224128776</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660921</v>
+        <v>3.770927819660884</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332262</v>
+        <v>14.19540532332248</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764031</v>
+        <v>31.25133992764</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737758</v>
+        <v>46.83765747737713</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576967081</v>
+        <v>58.10625576967024</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063088</v>
+        <v>64.65440542063025</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443649</v>
+        <v>65.70058129443585</v>
       </c>
       <c r="O5" t="n">
-        <v>62.0391958671934</v>
+        <v>62.03919586719279</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512538</v>
+        <v>52.94901834512486</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121406</v>
+        <v>39.76250766121367</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551817</v>
+        <v>23.12955397551795</v>
       </c>
       <c r="S5" t="n">
-        <v>8.39057904948354</v>
+        <v>8.390579049483458</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862388</v>
+        <v>1.611838059862373</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0294567777930305</v>
+        <v>0.02945677779303021</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740243</v>
+        <v>0.1970095698740224</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993867</v>
+        <v>1.902697687993848</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680224</v>
+        <v>6.783004927680158</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779105</v>
+        <v>18.61308396779086</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935067</v>
+        <v>31.81272514935036</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742796</v>
+        <v>42.77613489742754</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536133</v>
+        <v>49.91773180536084</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140249</v>
+        <v>51.23890563140199</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998332</v>
+        <v>46.87358831998286</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707533014</v>
+        <v>37.62018707532977</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900704</v>
+        <v>25.14809877900679</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340653</v>
+        <v>12.23187487340641</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703914</v>
+        <v>3.659366352703878</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220538</v>
+        <v>0.7940868189220461</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276476</v>
+        <v>0.01296115591276464</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020077</v>
+        <v>0.1651662054020061</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46847771711967</v>
+        <v>1.468477717119655</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725833</v>
+        <v>4.966998249725785</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192194</v>
+        <v>11.67725072192183</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579689</v>
+        <v>19.1893100457967</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040395</v>
+        <v>24.55571021040371</v>
       </c>
       <c r="M7" t="n">
-        <v>25.8905534522438</v>
+        <v>25.89055345224355</v>
       </c>
       <c r="N7" t="n">
-        <v>25.2749339593818</v>
+        <v>25.27493395938155</v>
       </c>
       <c r="O7" t="n">
-        <v>23.3454923780947</v>
+        <v>23.34549237809447</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789373</v>
+        <v>19.97610178789353</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598085</v>
+        <v>13.83041743598071</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257544</v>
+        <v>7.426473199257472</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869533</v>
+        <v>2.878396506869505</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540327</v>
+        <v>0.7057101503540258</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200431</v>
+        <v>0.009009065749200343</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34787,7 +34787,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3809279722199</v>
+        <v>210.4624139667339</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302779</v>
+        <v>19.30205057302749</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035618</v>
+        <v>150.8932190035613</v>
       </c>
       <c r="L5" t="n">
-        <v>240.001055350134</v>
+        <v>240.0010553501334</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861906</v>
+        <v>283.82170568619</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098297</v>
+        <v>273.6344421098291</v>
       </c>
       <c r="O5" t="n">
-        <v>212.741165708252</v>
+        <v>212.7411657082514</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613385</v>
+        <v>143.514730761338</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666925</v>
+        <v>29.77180844666886</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.4365231875703</v>
+        <v>158.43652318757</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210129</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>341.8733101690331</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690341</v>
+        <v>333.122132829192</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522684</v>
+        <v>298.1396631522679</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009371</v>
+        <v>222.1085483009367</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.06003240818129</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547072009</v>
+        <v>52.14573547071985</v>
       </c>
       <c r="M7" t="n">
-        <v>65.4744304140844</v>
+        <v>65.47443041408414</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861039</v>
+        <v>69.40710633861013</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213437</v>
+        <v>47.93062029213414</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278721</v>
+        <v>17.25466105278702</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,19 +35498,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>450.1033124512089</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>693.6972596887384</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>178.6980756505692</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,19 +35972,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>747.6947913160968</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841784</v>
+        <v>30.90885570841788</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M25" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N25" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
         <v>254.6384370634552</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472707</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36680,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>515.2286476848074</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841784</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M28" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N28" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472707</v>
+        <v>57.62678551472714</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221117</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841784</v>
+        <v>30.90885570841791</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M31" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N31" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P31" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472707</v>
+        <v>57.62678551472714</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>546.504348532127</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,25 +37306,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>497.5614070938339</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>291.0298521604568</v>
+        <v>612.6482621973859</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>418.4946367192911</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,10 +37479,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>612.6482621973859</v>
       </c>
       <c r="M38" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>3.070674305565556</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.488392424856</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
-        <v>739.6869722975898</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>628.02702632956</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>714.1872090116815</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145247</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,10 +37877,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38020,22 +38020,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>628.02702632956</v>
       </c>
       <c r="O44" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.5060788045603</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
